--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st02.xlsx
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]   ...That's weird. Weren't you one of those "as long as the target dies, anything goes" types?
+    <t xml:space="preserve">[name="W"]   ...That's weird. Weren't you one of those 'as long as the target dies, anything goes' types?
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flamebringer"]     I lost so much "last time," but now the path before me is crystal clear.
+    <t xml:space="preserve">[name="Flamebringer"]     I lost so much 'last time,' but now the path before me is crystal clear.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st02.xlsx
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">01:13 P.M. - Clear Skies
+    <t xml:space="preserve">01:13 P.M. \ Clear
 </t>
   </si>
   <si>
